--- a/output/crypto_metrics.xlsx
+++ b/output/crypto_metrics.xlsx
@@ -474,16 +474,16 @@
       </c>
       <c r="B2" s="1" t="n"/>
       <c r="C2" s="2" t="n">
-        <v>2332.034072576</v>
+        <v>2240.93536256</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>547.644964864</v>
+        <v>462.063665152</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>181.816918016</v>
+        <v>147.164332032</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>171.524046848</v>
+        <v>179.364806656</v>
       </c>
     </row>
     <row r="3">
@@ -494,16 +494,16 @@
       </c>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="3" t="n">
-        <v>117052.296875</v>
+        <v>112424.5703125</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>4537.091796875</v>
+        <v>3828.096435546875</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>3.041574239730835</v>
+        <v>2.456175804138184</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>1.000462055206299</v>
+        <v>1.001121520996094</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
       </c>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>36816239.89080239</v>
+        <v>84586491.30498093</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1118662.799653151</v>
+        <v>1890355.338536892</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>122.3886035981105</v>
+        <v>175.643026649708</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>897.1499721726648</v>
+        <v>1639.429833220374</v>
       </c>
     </row>
     <row r="5">
@@ -534,16 +534,16 @@
       </c>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="3" t="n">
-        <v>2.430593702799722</v>
+        <v>-2.669062794534849</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>4.673925153347547</v>
+        <v>-14.19197128561743</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>3.078042955840421</v>
+        <v>-19.22956122033444</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.0407077352683638</v>
+        <v>0.08553375890063553</v>
       </c>
     </row>
     <row r="6">
@@ -554,16 +554,16 @@
       </c>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="3" t="n">
-        <v>85.97306469650104</v>
+        <v>80.03748668439516</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>84.07902432984584</v>
+        <v>57.11370156931505</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>417.828473430785</v>
+        <v>356.286365209207</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.02639963033366222</v>
+        <v>0.1365875714729903</v>
       </c>
     </row>
     <row r="7">
@@ -574,16 +574,16 @@
       </c>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="3" t="n">
-        <v>91.78082191780823</v>
+        <v>80.27397260273973</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>96.7123287671233</v>
+        <v>78.9041095890411</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>87.12328767123287</v>
+        <v>60.82191780821918</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>87.12328767123287</v>
+        <v>98.08219178082192</v>
       </c>
     </row>
     <row r="8">
@@ -594,16 +594,16 @@
       </c>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="3" t="n">
-        <v>5.78513832132368</v>
+        <v>2.50052548957429</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>5.342549973001054</v>
+        <v>-4.74192523837782</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>8.000939706405251</v>
+        <v>-12.52109498803294</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.05120891119698712</v>
+        <v>0.06611881822113919</v>
       </c>
     </row>
     <row r="9">
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>28.57914127177288</v>
+        <v>38.46084286189546</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>71.30737788817956</v>
+        <v>70.3572730905657</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>52.94742911903615</v>
+        <v>72.72436329083831</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.4611187005687553</v>
+        <v>0.736294061853986</v>
       </c>
     </row>
     <row r="10">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>29.07180475350262</v>
+        <v>32.37310832037911</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>68.40707220834979</v>
+        <v>72.64577855619268</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>70.41561507646976</v>
+        <v>76.01373985848964</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.5742702115438973</v>
+        <v>0.5661505560677009</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>44.06662711280033</v>
+        <v>44.56840485111051</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>74.35306580500514</v>
+        <v>75.95183955450548</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>97.81887009320083</v>
+        <v>98.98439195313129</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.7162915690496886</v>
+        <v>0.7337897703694428</v>
       </c>
     </row>
     <row r="12">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1.038585013876551</v>
+        <v>-0.7569856038535573</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>1.063214248383114</v>
+        <v>-2.339018620417016</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.884279182037442</v>
+        <v>-3.232139538851686</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>-6.514141146904358</v>
+        <v>-3.337184958552381</v>
       </c>
     </row>
     <row r="13">
@@ -702,16 +702,16 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>1.909403244907021</v>
+        <v>-0.6704797692785314</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>4.320930986071909</v>
+        <v>1.721684850690456</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>2.548342816219923</v>
+        <v>-0.4337109528254859</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-5.8079638984645</v>
+        <v>-5.652814450733596</v>
       </c>
     </row>
     <row r="14">
@@ -722,16 +722,16 @@
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1.87155382882808</v>
+        <v>1.71730370292774</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1.083735061324422</v>
+        <v>0.7058907576667756</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>4.235670203878009</v>
+        <v>3.564060537708303</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-4.849422385739712</v>
+        <v>-4.583618584425925</v>
       </c>
     </row>
     <row r="15">
@@ -746,16 +746,16 @@
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>33.18186783432416</v>
+        <v>-25.61430435852872</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>79.31502018555148</v>
+        <v>-161.0669718405982</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>50.32030931236673</v>
+        <v>-231.5552900301326</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.4962076990180013</v>
+        <v>1.042850531709442</v>
       </c>
     </row>
     <row r="16">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>59.00979833164125</v>
+        <v>-18.20551419747669</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>299.0822379715172</v>
+        <v>128.5731364068105</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>182.943126829829</v>
+        <v>-29.46799154185416</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.1646593433894734</v>
+        <v>0.2996559553696395</v>
       </c>
     </row>
     <row r="17">
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>85.97306469650077</v>
+        <v>80.03748668439474</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>84.07902432984606</v>
+        <v>57.11370156931525</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>417.8284734307844</v>
+        <v>356.2863652092066</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0.02639963033381765</v>
+        <v>0.1365875714729903</v>
       </c>
     </row>
   </sheetData>
